--- a/Excel/FuluConfig.xlsx
+++ b/Excel/FuluConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -28,10 +28,28 @@
     <t>测试说明</t>
   </si>
   <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>Desc</t>
+    <t>所需item，奇数位个数，偶数位id</t>
+  </si>
+  <si>
+    <t>前置</t>
+  </si>
+  <si>
+    <t>解锁条件，偶数位id，奇数位个数</t>
+  </si>
+  <si>
+    <t>生成了什么，对应Consumableconfig</t>
+  </si>
+  <si>
+    <t>Need</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>Unlockarr</t>
+  </si>
+  <si>
+    <t>Generate</t>
   </si>
   <si>
     <t>int</t>
@@ -40,22 +58,58 @@
     <t>string</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>O</t>
   </si>
   <si>
+    <t>1,2,2,1</t>
+  </si>
+  <si>
     <t>li</t>
   </si>
   <si>
+    <t>2,3,4,1</t>
+  </si>
+  <si>
+    <t>0,2</t>
+  </si>
+  <si>
+    <t>8,3</t>
+  </si>
+  <si>
     <t>infinite</t>
   </si>
   <si>
+    <t>4,1</t>
+  </si>
+  <si>
     <t>hui</t>
   </si>
   <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>9,2,10,1</t>
+  </si>
+  <si>
     <t>gou</t>
   </si>
   <si>
+    <t>1,4,6,2</t>
+  </si>
+  <si>
+    <t>8,2,9,2,10,2</t>
+  </si>
+  <si>
     <t>faiz</t>
+  </si>
+  <si>
+    <t>2,4,3,1</t>
   </si>
 </sst>
 </file>
@@ -703,7 +757,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1053,20 +1107,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:F11"/>
+  <dimension ref="C2:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="21.1296296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.6296296296296" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.1296296296296" style="2" customWidth="1"/>
     <col min="6" max="6" width="28.75" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="24.3333333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.5555555555556" style="2" customWidth="1"/>
+    <col min="9" max="9" width="29.1111111111111" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:5">
@@ -1074,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:6">
+    <row r="3" spans="3:9">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1087,8 +1144,17 @@
       <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="3:9">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1097,82 +1163,166 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="3:9">
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:6">
+    <row r="6" s="1" customFormat="1" spans="3:9">
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:9">
       <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="3:6">
-      <c r="C8" s="1">
+    <row r="9" spans="3:9">
+      <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="3:6">
-      <c r="C9" s="1">
+    <row r="10" spans="3:9">
+      <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="3:6">
-      <c r="C10" s="1">
+    <row r="11" spans="3:9">
+      <c r="C11" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="C11" s="1">
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FuluConfig.xlsx
+++ b/Excel/FuluConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>#</t>
   </si>
@@ -110,6 +110,21 @@
   </si>
   <si>
     <t>2,4,3,1</t>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>8,2,9,1,10,3</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>1,4,4,2,7,3</t>
+  </si>
+  <si>
+    <t>8,3,9,3,10,4</t>
   </si>
 </sst>
 </file>
@@ -749,7 +764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -758,6 +773,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1107,10 +1125,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:I11"/>
+  <dimension ref="C2:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1236,7 +1254,7 @@
       <c r="H7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1257,7 +1275,7 @@
       <c r="H8" s="1">
         <v>-1</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1278,7 +1296,7 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1299,7 +1317,7 @@
       <c r="H10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1314,14 +1332,35 @@
       <c r="F11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="G11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="5">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="5">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
